--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\bldgs\SoCEUtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\bldgs\SoCEUtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6610A37E-B295-40F3-8897-0F1F8A709221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="80" yWindow="60" windowWidth="11550" windowHeight="12440" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,18 @@
     <sheet name="Pre-Calibration Calculated Vals" sheetId="7" r:id="rId6"/>
     <sheet name="SoCEUtiNTY" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1176,7 +1188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1419,15 +1431,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="7"/>
-    <cellStyle name="Footnotes: top row" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="6"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title" xfId="8"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1518,6 +1530,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1553,6 +1582,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1728,22 +1774,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1751,167 +1797,167 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="30" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>379</v>
       </c>
@@ -1923,18 +1969,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1950,7 +1996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +2004,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +2012,7 @@
         <v>51.81818181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +2020,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +2028,7 @@
         <v>13.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2006,14 +2052,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.59765625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.73046875" style="6"/>
+    <col min="1" max="1" width="19.81640625" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -2126,8 +2172,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -2138,7 +2184,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -2151,7 +2197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -2162,7 +2208,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -2173,7 +2219,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>339</v>
       </c>
@@ -2181,12 +2227,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -2302,7 +2348,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -2418,18 +2464,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>336</v>
       </c>
@@ -2548,7 +2594,7 @@
         <v>8.4399999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>334</v>
       </c>
@@ -2667,7 +2713,7 @@
         <v>1.0499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>332</v>
       </c>
@@ -2786,7 +2832,7 @@
         <v>-7.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>330</v>
       </c>
@@ -2905,7 +2951,7 @@
         <v>8.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>329</v>
       </c>
@@ -3024,17 +3070,17 @@
         <v>3.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>325</v>
       </c>
@@ -3153,7 +3199,7 @@
         <v>-7.7879999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>324</v>
       </c>
@@ -3272,12 +3318,12 @@
         <v>-8.8489999999999992E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>323</v>
       </c>
@@ -3396,7 +3442,7 @@
         <v>-1.1476E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>321</v>
       </c>
@@ -3515,17 +3561,17 @@
         <v>-1.2533000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>319</v>
       </c>
@@ -3644,7 +3690,7 @@
         <v>-1.041E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>318</v>
       </c>
@@ -3763,7 +3809,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>317</v>
       </c>
@@ -3882,7 +3928,7 @@
         <v>1.9040000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>316</v>
       </c>
@@ -4001,7 +4047,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>315</v>
       </c>
@@ -4120,7 +4166,7 @@
         <v>1.0992999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>314</v>
       </c>
@@ -4239,7 +4285,7 @@
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>313</v>
       </c>
@@ -4358,7 +4404,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>311</v>
       </c>
@@ -4477,7 +4523,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>310</v>
       </c>
@@ -4596,7 +4642,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>308</v>
       </c>
@@ -4715,7 +4761,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>306</v>
       </c>
@@ -4834,7 +4880,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>304</v>
       </c>
@@ -4953,7 +4999,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>302</v>
       </c>
@@ -5072,7 +5118,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>300</v>
       </c>
@@ -5191,7 +5237,7 @@
         <v>6.9309999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>299</v>
       </c>
@@ -5310,12 +5356,12 @@
         <v>2.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>298</v>
       </c>
@@ -5434,7 +5480,7 @@
         <v>2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>297</v>
       </c>
@@ -5553,7 +5599,7 @@
         <v>-7.4190000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>295</v>
       </c>
@@ -5672,7 +5718,7 @@
         <v>2.3839999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>294</v>
       </c>
@@ -5791,7 +5837,7 @@
         <v>3.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>293</v>
       </c>
@@ -5910,7 +5956,7 @@
         <v>6.659E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>291</v>
       </c>
@@ -6029,7 +6075,7 @@
         <v>-5.071E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>289</v>
       </c>
@@ -6148,12 +6194,12 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>288</v>
       </c>
@@ -6272,7 +6318,7 @@
         <v>-1.4128E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>287</v>
       </c>
@@ -6391,7 +6437,7 @@
         <v>-3.7629999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>286</v>
       </c>
@@ -6510,7 +6556,7 @@
         <v>-6.2040000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>285</v>
       </c>
@@ -6629,12 +6675,12 @@
         <v>-1.5632E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>283</v>
       </c>
@@ -6753,7 +6799,7 @@
         <v>-7.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>281</v>
       </c>
@@ -6872,7 +6918,7 @@
         <v>-1.7628999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>279</v>
       </c>
@@ -6991,7 +7037,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>278</v>
       </c>
@@ -7110,7 +7156,7 @@
         <v>1.4448000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>277</v>
       </c>
@@ -7229,7 +7275,7 @@
         <v>-4.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>276</v>
       </c>
@@ -7348,7 +7394,7 @@
         <v>-6.3109999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>274</v>
       </c>
@@ -7467,12 +7513,12 @@
         <v>-2.0202999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>272</v>
       </c>
@@ -7591,7 +7637,7 @@
         <v>-1.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>271</v>
       </c>
@@ -7710,7 +7756,7 @@
         <v>4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>270</v>
       </c>
@@ -7829,7 +7875,7 @@
         <v>1.214E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>269</v>
       </c>
@@ -7948,7 +7994,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>268</v>
       </c>
@@ -8067,7 +8113,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>267</v>
       </c>
@@ -8186,7 +8232,7 @@
         <v>8.5059999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>266</v>
       </c>
@@ -8305,7 +8351,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>265</v>
       </c>
@@ -8424,7 +8470,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>264</v>
       </c>
@@ -8543,7 +8589,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>263</v>
       </c>
@@ -8662,7 +8708,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>262</v>
       </c>
@@ -8781,7 +8827,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>261</v>
       </c>
@@ -8900,7 +8946,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>260</v>
       </c>
@@ -9019,7 +9065,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>259</v>
       </c>
@@ -9138,7 +9184,7 @@
         <v>5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>258</v>
       </c>
@@ -9257,7 +9303,7 @@
         <v>5.04E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>256</v>
       </c>
@@ -9376,12 +9422,12 @@
         <v>-1.823E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>255</v>
       </c>
@@ -9500,7 +9546,7 @@
         <v>-2.343E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>253</v>
       </c>
@@ -9619,7 +9665,7 @@
         <v>-1.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>251</v>
       </c>
@@ -9738,7 +9784,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>249</v>
       </c>
@@ -9857,7 +9903,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>247</v>
       </c>
@@ -9976,7 +10022,7 @@
         <v>6.1139999999999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>245</v>
       </c>
@@ -10095,7 +10141,7 @@
         <v>6.339E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>243</v>
       </c>
@@ -10214,7 +10260,7 @@
         <v>-5.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>241</v>
       </c>
@@ -10333,7 +10379,7 @@
         <v>-2.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>239</v>
       </c>
@@ -10452,7 +10498,7 @@
         <v>-1.2541999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>237</v>
       </c>
@@ -10571,7 +10617,7 @@
         <v>9.5589999999999998E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
         <v>235</v>
       </c>
@@ -10690,7 +10736,7 @@
         <v>2.562E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
         <v>233</v>
       </c>
@@ -10809,7 +10855,7 @@
         <v>-3.4768E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>231</v>
       </c>
@@ -10928,7 +10974,7 @@
         <v>-4.6909999999999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>229</v>
       </c>
@@ -11047,7 +11093,7 @@
         <v>3.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>227</v>
       </c>
@@ -11166,12 +11212,12 @@
         <v>-5.6499999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
         <v>224</v>
       </c>
@@ -11290,7 +11336,7 @@
         <v>2.7342999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
         <v>222</v>
       </c>
@@ -11409,7 +11455,7 @@
         <v>2.7820999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
         <v>220</v>
       </c>
@@ -11528,7 +11574,7 @@
         <v>9.7493999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>219</v>
       </c>
@@ -11647,7 +11693,7 @@
         <v>9.724E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>218</v>
       </c>
@@ -11766,12 +11812,12 @@
         <v>8.5554000000000005E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
         <v>217</v>
       </c>
@@ -11890,7 +11936,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
         <v>216</v>
       </c>
@@ -12009,7 +12055,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
         <v>215</v>
       </c>
@@ -12128,7 +12174,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
         <v>214</v>
       </c>
@@ -12247,7 +12293,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
         <v>213</v>
       </c>
@@ -12366,7 +12412,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
         <v>212</v>
       </c>
@@ -12485,7 +12531,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
         <v>211</v>
       </c>
@@ -12604,7 +12650,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="s">
         <v>210</v>
       </c>
@@ -12723,7 +12769,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
         <v>209</v>
       </c>
@@ -12842,7 +12888,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>208</v>
       </c>
@@ -12961,12 +13007,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
         <v>207</v>
       </c>
@@ -13085,7 +13131,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
         <v>206</v>
       </c>
@@ -13204,7 +13250,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
         <v>205</v>
       </c>
@@ -13323,7 +13369,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>204</v>
       </c>
@@ -13442,7 +13488,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
         <v>203</v>
       </c>
@@ -13561,7 +13607,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
         <v>202</v>
       </c>
@@ -13680,7 +13726,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
         <v>201</v>
       </c>
@@ -13799,7 +13845,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
         <v>200</v>
       </c>
@@ -13918,7 +13964,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
         <v>199</v>
       </c>
@@ -14037,7 +14083,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>198</v>
       </c>
@@ -14156,8 +14202,8 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="36" t="s">
         <v>197</v>
       </c>
@@ -14199,102 +14245,102 @@
       <c r="AL142" s="36"/>
       <c r="AM142" s="36"/>
     </row>
-    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
         <v>18</v>
       </c>
@@ -14309,7 +14355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14319,14 +14365,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.59765625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.73046875" style="6"/>
+    <col min="1" max="1" width="19.81640625" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -14439,8 +14485,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -14451,7 +14497,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -14464,7 +14510,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -14475,7 +14521,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -14486,7 +14532,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>171</v>
       </c>
@@ -14494,12 +14540,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -14615,7 +14661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -14731,18 +14777,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>163</v>
       </c>
@@ -14861,7 +14907,7 @@
         <v>1.0206E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>161</v>
       </c>
@@ -14980,7 +15026,7 @@
         <v>7.5760000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -15099,17 +15145,17 @@
         <v>1.0149999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -15228,7 +15274,7 @@
         <v>-5.5329999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>154</v>
       </c>
@@ -15347,7 +15393,7 @@
         <v>-8.9350000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>152</v>
       </c>
@@ -15466,17 +15512,17 @@
         <v>-7.2139999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>148</v>
       </c>
@@ -15595,7 +15641,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>147</v>
       </c>
@@ -15714,7 +15760,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>146</v>
       </c>
@@ -15833,7 +15879,7 @@
         <v>-8.2909999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>145</v>
       </c>
@@ -15952,7 +15998,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
@@ -16071,7 +16117,7 @@
         <v>-6.5640000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
@@ -16190,7 +16236,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
@@ -16309,7 +16355,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>141</v>
       </c>
@@ -16428,7 +16474,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>140</v>
       </c>
@@ -16547,7 +16593,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -16666,7 +16712,7 @@
         <v>1.7672E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>137</v>
       </c>
@@ -16785,12 +16831,12 @@
         <v>5.1929999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>135</v>
       </c>
@@ -16909,7 +16955,7 @@
         <v>-6.9439999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>134</v>
       </c>
@@ -17028,7 +17074,7 @@
         <v>-1.3974E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>133</v>
       </c>
@@ -17147,7 +17193,7 @@
         <v>1.438E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>132</v>
       </c>
@@ -17266,7 +17312,7 @@
         <v>9.7310000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>131</v>
       </c>
@@ -17385,7 +17431,7 @@
         <v>1.7788999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>129</v>
       </c>
@@ -17504,12 +17550,12 @@
         <v>4.705E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
@@ -17628,7 +17674,7 @@
         <v>-1.0187E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -17747,7 +17793,7 @@
         <v>2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>125</v>
       </c>
@@ -17866,7 +17912,7 @@
         <v>2.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>123</v>
       </c>
@@ -17985,7 +18031,7 @@
         <v>-4.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>122</v>
       </c>
@@ -18104,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>120</v>
       </c>
@@ -18223,12 +18269,12 @@
         <v>5.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>117</v>
       </c>
@@ -18347,7 +18393,7 @@
         <v>-6.8739999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>116</v>
       </c>
@@ -18466,7 +18512,7 @@
         <v>-3.385E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>115</v>
       </c>
@@ -18585,7 +18631,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>114</v>
       </c>
@@ -18704,7 +18750,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>113</v>
       </c>
@@ -18823,7 +18869,7 @@
         <v>7.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>112</v>
       </c>
@@ -18942,7 +18988,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>111</v>
       </c>
@@ -19061,7 +19107,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>110</v>
       </c>
@@ -19180,7 +19226,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>109</v>
       </c>
@@ -19299,7 +19345,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>108</v>
       </c>
@@ -19418,7 +19464,7 @@
         <v>1.5339E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>107</v>
       </c>
@@ -19537,7 +19583,7 @@
         <v>4.561E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -19656,12 +19702,12 @@
         <v>1.1249999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -19780,7 +19826,7 @@
         <v>-6.5789999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>100</v>
       </c>
@@ -19899,7 +19945,7 @@
         <v>-5.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>98</v>
       </c>
@@ -20018,7 +20064,7 @@
         <v>-3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>96</v>
       </c>
@@ -20137,7 +20183,7 @@
         <v>-1.3679E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>94</v>
       </c>
@@ -20256,7 +20302,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>92</v>
       </c>
@@ -20375,7 +20421,7 @@
         <v>-2.2335000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>90</v>
       </c>
@@ -20494,7 +20540,7 @@
         <v>-3.0479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
@@ -20613,7 +20659,7 @@
         <v>-1.2841E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>86</v>
       </c>
@@ -20732,7 +20778,7 @@
         <v>1.4319E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
@@ -20851,7 +20897,7 @@
         <v>1.4466E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>82</v>
       </c>
@@ -20970,12 +21016,12 @@
         <v>2.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>79</v>
       </c>
@@ -21094,7 +21140,7 @@
         <v>4.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>77</v>
       </c>
@@ -21213,7 +21259,7 @@
         <v>6.2715999999999994E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>75</v>
       </c>
@@ -21332,7 +21378,7 @@
         <v>4.8741E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>73</v>
       </c>
@@ -21451,12 +21497,12 @@
         <v>4.7280999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>70</v>
       </c>
@@ -21575,7 +21621,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>69</v>
       </c>
@@ -21694,7 +21740,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>68</v>
       </c>
@@ -21813,7 +21859,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>67</v>
       </c>
@@ -21932,7 +21978,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>66</v>
       </c>
@@ -22051,7 +22097,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>65</v>
       </c>
@@ -22170,7 +22216,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
@@ -22289,7 +22335,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>63</v>
       </c>
@@ -22408,7 +22454,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>62</v>
       </c>
@@ -22527,7 +22573,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>61</v>
       </c>
@@ -22646,12 +22692,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>59</v>
       </c>
@@ -22770,7 +22816,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>57</v>
       </c>
@@ -22889,7 +22935,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>55</v>
       </c>
@@ -23008,7 +23054,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
         <v>53</v>
       </c>
@@ -23127,7 +23173,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>51</v>
       </c>
@@ -23246,7 +23292,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
         <v>49</v>
       </c>
@@ -23365,7 +23411,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
         <v>47</v>
       </c>
@@ -23484,7 +23530,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
         <v>45</v>
       </c>
@@ -23603,7 +23649,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>43</v>
       </c>
@@ -23722,7 +23768,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>41</v>
       </c>
@@ -23841,8 +23887,8 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="36" t="s">
         <v>39</v>
       </c>
@@ -23884,107 +23930,107 @@
       <c r="AL118" s="36"/>
       <c r="AM118" s="36"/>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>18</v>
       </c>
@@ -23999,26 +24045,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -24128,7 +24174,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -24277,7 +24323,7 @@
         <v>2.0387429639167166E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -24286,19 +24332,19 @@
         <v>2.1866115765726366E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>344</v>
       </c>
@@ -24306,7 +24352,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -24314,7 +24360,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -24322,7 +24368,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -24330,12 +24376,12 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2015</v>
       </c>
@@ -24445,7 +24491,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -24590,7 +24636,7 @@
         <v>106.80688818099999</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -24735,7 +24781,7 @@
         <v>40.991097584999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -24880,12 +24926,12 @@
         <v>4.4407329119999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>2015</v>
       </c>
@@ -24995,7 +25041,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -25140,7 +25186,7 @@
         <v>1.1215938190000116</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>341</v>
       </c>
@@ -25285,7 +25331,7 @@
         <v>0.52974641499999819</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>342</v>
       </c>
@@ -25430,12 +25476,12 @@
         <v>0.12269708800000068</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2015</v>
       </c>
@@ -25545,7 +25591,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -25690,7 +25736,7 @@
         <v>1.0501137502473678E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>341</v>
       </c>
@@ -25835,7 +25881,7 @@
         <v>1.2923450363862663E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>342</v>
       </c>
@@ -25980,15 +26026,15 @@
         <v>2.7629918401181404E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -25997,7 +26043,7 @@
         <v>1.143000484613816E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -26006,7 +26052,7 @@
         <v>1.5514513735396921E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -26015,12 +26061,12 @@
         <v>2.7312273593190856E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -26029,34 +26075,34 @@
         <v>1.3254110935573082E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
         <v>356</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -26065,7 +26111,7 @@
         <v>0.97813388423427361</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>362</v>
       </c>
@@ -26074,12 +26120,12 @@
         <v>0.98674588906442695</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -26088,7 +26134,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -26097,7 +26143,7 @@
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -26106,7 +26152,7 @@
         <v>0.1095</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -26115,7 +26161,7 @@
         <v>7.3891625615763554E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -26124,12 +26170,12 @@
         <v>6.4935064935064929E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>361</v>
       </c>
@@ -26137,7 +26183,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -26150,7 +26196,7 @@
         <v>6.5188105096858712E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -26163,7 +26209,7 @@
         <v>7.5574903929115839E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -26176,7 +26222,7 @@
         <v>0.12130278578812782</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -26189,7 +26235,7 @@
         <v>8.6166368748215469E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -26209,20 +26255,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
@@ -26233,7 +26279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -26250,7 +26296,7 @@
         <v>7.3346846514898659E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26267,7 +26313,7 @@
         <v>8.3642992664733129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26281,7 +26327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26298,7 +26344,7 @@
         <v>0.12897177608937932</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -26315,7 +26361,7 @@
         <v>9.4142018541657921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26332,7 +26378,7 @@
         <v>8.5381303053666202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="4"/>
     </row>
   </sheetData>
@@ -26341,25 +26387,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>381</v>
       </c>
@@ -26373,22 +26419,21 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34">
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C2" s="4">
-        <f>B2</f>
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D2" s="34">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26396,14 +26441,13 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="C3" s="4">
-        <f>B3</f>
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D3" s="34">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26417,7 +26461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26425,14 +26469,13 @@
         <v>0.114</v>
       </c>
       <c r="C5" s="4">
-        <f>B5</f>
         <v>0.114</v>
       </c>
       <c r="D5" s="34">
         <v>0.112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -26440,29 +26483,27 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="C6" s="4">
-        <f>B6</f>
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="D6" s="34">
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="34">
-        <v>7.3999999999999996E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C7" s="4">
-        <f>B7</f>
-        <v>7.3999999999999996E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D7" s="34">
-        <v>6.3500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="4"/>
     </row>
   </sheetData>

--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\bldgs\SoCEUtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\bldgs\SoCEUtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6610A37E-B295-40F3-8897-0F1F8A709221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5814D4D2-8646-40C1-897F-BF48D02CAAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="60" windowWidth="11550" windowHeight="12440" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22905" yWindow="1710" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Pre-Calibration Calculated Vals" sheetId="7" r:id="rId6"/>
     <sheet name="SoCEUtiNTY" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1777,19 +1777,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1797,167 +1797,167 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>379</v>
       </c>
@@ -1974,13 +1974,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>51.81818181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>13.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2052,14 +2052,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6328125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -2172,8 +2172,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>339</v>
       </c>
@@ -2227,12 +2227,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -2464,18 +2464,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>336</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>8.4399999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>334</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1.0499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>332</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>-7.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>330</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>8.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>329</v>
       </c>
@@ -3070,17 +3070,17 @@
         <v>3.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>325</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>-7.7879999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>324</v>
       </c>
@@ -3318,12 +3318,12 @@
         <v>-8.8489999999999992E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>323</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>-1.1476E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>321</v>
       </c>
@@ -3561,17 +3561,17 @@
         <v>-1.2533000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>319</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>-1.041E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>318</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>317</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1.9040000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>316</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>315</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>1.0992999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>314</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>313</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>311</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>310</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>308</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>306</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>304</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>302</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>300</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>6.9309999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>299</v>
       </c>
@@ -5356,12 +5356,12 @@
         <v>2.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>298</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>297</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>-7.4190000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>295</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>2.3839999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>294</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>3.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>293</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>6.659E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>291</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>-5.071E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>289</v>
       </c>
@@ -6194,12 +6194,12 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>288</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>-1.4128E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>287</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>-3.7629999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>286</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>-6.2040000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>285</v>
       </c>
@@ -6675,12 +6675,12 @@
         <v>-1.5632E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>283</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>-7.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>281</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>-1.7628999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>279</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>278</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>1.4448000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>277</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>-4.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>276</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>-6.3109999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>274</v>
       </c>
@@ -7513,12 +7513,12 @@
         <v>-2.0202999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>272</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>-1.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>271</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>270</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>1.214E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>269</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>268</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>267</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>8.5059999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>266</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>265</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>264</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>263</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>262</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>261</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>260</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>259</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>258</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>5.04E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>256</v>
       </c>
@@ -9422,12 +9422,12 @@
         <v>-1.823E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>255</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>-2.343E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>253</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>-1.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>251</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>249</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>247</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>6.1139999999999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>245</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>6.339E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>243</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>-5.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>241</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>-2.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>239</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>-1.2541999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>237</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>9.5589999999999998E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>235</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>2.562E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>233</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>-3.4768E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>231</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>-4.6909999999999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>229</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>3.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>227</v>
       </c>
@@ -11212,12 +11212,12 @@
         <v>-5.6499999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>224</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>2.7342999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>222</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>2.7820999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>220</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>9.7493999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>219</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>9.724E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>218</v>
       </c>
@@ -11812,12 +11812,12 @@
         <v>8.5554000000000005E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>217</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>216</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>215</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>214</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>213</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>212</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>211</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>210</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>209</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>208</v>
       </c>
@@ -13007,12 +13007,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>207</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>206</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>205</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>204</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>203</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>202</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>201</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>200</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>199</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>198</v>
       </c>
@@ -14202,8 +14202,8 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="36" t="s">
         <v>197</v>
       </c>
@@ -14245,102 +14245,102 @@
       <c r="AL142" s="36"/>
       <c r="AM142" s="36"/>
     </row>
-    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
         <v>18</v>
       </c>
@@ -14365,14 +14365,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6328125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -14485,8 +14485,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -14497,7 +14497,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -14521,7 +14521,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -14532,7 +14532,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>171</v>
       </c>
@@ -14540,12 +14540,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -14777,18 +14777,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>163</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>1.0206E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>161</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>7.5760000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -15145,17 +15145,17 @@
         <v>1.0149999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>-5.5329999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>154</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>-8.9350000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>152</v>
       </c>
@@ -15512,17 +15512,17 @@
         <v>-7.2139999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>148</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>147</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>146</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>-8.2909999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>145</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>-6.5640000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>141</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>140</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>1.7672E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>137</v>
       </c>
@@ -16831,12 +16831,12 @@
         <v>5.1929999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>135</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>-6.9439999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>134</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>-1.3974E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>133</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>1.438E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>132</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>9.7310000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>131</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>1.7788999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>129</v>
       </c>
@@ -17550,12 +17550,12 @@
         <v>4.705E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>-1.0187E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>125</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>2.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>123</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>-4.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>122</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>120</v>
       </c>
@@ -18269,12 +18269,12 @@
         <v>5.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>117</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>-6.8739999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>116</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>-3.385E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>115</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>114</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>113</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>7.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>112</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>111</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>110</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>109</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>108</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>1.5339E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>107</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>4.561E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -19702,12 +19702,12 @@
         <v>1.1249999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>-6.5789999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>100</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>-5.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>98</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>-3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>96</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>-1.3679E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>94</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>92</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>-2.2335000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>90</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>-3.0479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>-1.2841E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>86</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>1.4319E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>1.4466E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>82</v>
       </c>
@@ -21016,12 +21016,12 @@
         <v>2.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>79</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>4.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>77</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>6.2715999999999994E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>75</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>4.8741E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>73</v>
       </c>
@@ -21497,12 +21497,12 @@
         <v>4.7280999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>70</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>69</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>68</v>
       </c>
@@ -21859,7 +21859,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>67</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>66</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>65</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>63</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>62</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>61</v>
       </c>
@@ -22692,12 +22692,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>59</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>57</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>55</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>53</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>51</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>49</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>47</v>
       </c>
@@ -23530,7 +23530,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>45</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>43</v>
       </c>
@@ -23768,7 +23768,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>41</v>
       </c>
@@ -23887,8 +23887,8 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="36" t="s">
         <v>39</v>
       </c>
@@ -23930,107 +23930,107 @@
       <c r="AL118" s="36"/>
       <c r="AM118" s="36"/>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
         <v>18</v>
       </c>
@@ -24050,21 +24050,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -24323,7 +24323,7 @@
         <v>2.0387429639167166E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -24332,19 +24332,19 @@
         <v>2.1866115765726366E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>344</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -24368,7 +24368,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -24376,12 +24376,12 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2015</v>
       </c>
@@ -24491,7 +24491,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>106.80688818099999</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -24781,7 +24781,7 @@
         <v>40.991097584999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -24926,12 +24926,12 @@
         <v>4.4407329119999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2015</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>1.1215938190000116</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>341</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>0.52974641499999819</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>342</v>
       </c>
@@ -25476,12 +25476,12 @@
         <v>0.12269708800000068</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2015</v>
       </c>
@@ -25591,7 +25591,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>1.0501137502473678E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>341</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>1.2923450363862663E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>342</v>
       </c>
@@ -26026,15 +26026,15 @@
         <v>2.7629918401181404E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>1.143000484613816E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -26052,7 +26052,7 @@
         <v>1.5514513735396921E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -26061,12 +26061,12 @@
         <v>2.7312273593190856E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -26075,34 +26075,34 @@
         <v>1.3254110935573082E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>356</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -26111,7 +26111,7 @@
         <v>0.97813388423427361</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>362</v>
       </c>
@@ -26120,12 +26120,12 @@
         <v>0.98674588906442695</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -26152,7 +26152,7 @@
         <v>0.1095</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -26161,7 +26161,7 @@
         <v>7.3891625615763554E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -26170,12 +26170,12 @@
         <v>6.4935064935064929E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>361</v>
       </c>
@@ -26183,7 +26183,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>6.5188105096858712E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>7.5574903929115839E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>0.12130278578812782</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -26235,7 +26235,7 @@
         <v>8.6166368748215469E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -26260,15 +26260,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
@@ -26279,7 +26279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>7.3346846514898659E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>8.3642992664733129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>0.12897177608937932</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>9.4142018541657921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26378,7 +26378,7 @@
         <v>8.5381303053666202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
   </sheetData>
@@ -26393,19 +26393,19 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>381</v>
       </c>
@@ -26419,12 +26419,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="C2" s="4">
         <v>5.2999999999999999E-2</v>
@@ -26433,7 +26433,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26475,12 +26475,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="34">
-        <v>7.1499999999999994E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C6" s="4">
         <v>7.1499999999999994E-2</v>
@@ -26489,7 +26489,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
   </sheetData>
